--- a/src/main/resources/TestData/STCSubscriptionTestData.xlsx
+++ b/src/main/resources/TestData/STCSubscriptionTestData.xlsx
@@ -5,32 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\eclipse-workspace\StcTvSubscription\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0DF32-0531-42A0-9545-BB6F92B0D438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BEB5A7-127A-400D-A944-4C37C03DFD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3E23E7DC-8EEB-4F78-8A12-1791C94E2C9F}"/>
+    <workbookView xWindow="2640" yWindow="2628" windowWidth="14376" windowHeight="7296" activeTab="2" xr2:uid="{3E23E7DC-8EEB-4F78-8A12-1791C94E2C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="SaudiArabia" sheetId="1" r:id="rId1"/>
     <sheet name="Bahrain" sheetId="2" r:id="rId2"/>
     <sheet name="Kuwait" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -71,13 +62,13 @@
     <t>6 BHD/month</t>
   </si>
   <si>
+    <t>2.5 KWD/month</t>
+  </si>
+  <si>
+    <t>4.8 KWD/month</t>
+  </si>
+  <si>
     <t>1.2 KWD/month</t>
-  </si>
-  <si>
-    <t>2.5 KWD/month</t>
-  </si>
-  <si>
-    <t>4.8 KWD/month</t>
   </si>
 </sst>
 </file>
@@ -431,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9466C2C-6A6B-4047-B334-252A71C59959}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -533,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EABF47C-F7AD-4A87-A8A2-A32E63079D0C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -564,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -572,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
